--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,992 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Search Term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DOI</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Access Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estonia 2007</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bronze Soldier</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Georgia 2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Russo-Georgian War</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Stuxnet</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Olympic Games</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Shamoon</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Saudi Aramco</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ras Gas</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>The Interview</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>DNC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Guccifer 2.0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Democratic National Committee</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Ukrainian Power Grid</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>BlackEnergy 3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Sandowrm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Considering the cost of cyber warfare: advancing cyber warfare analytics to better assess tradeoffs in system destruction warfare</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Considering the cost of cyber warfare: advancing cyber warfare analytics to better assess tradeoffs in system destruction warfare</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,6 +1410,6041 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Framing cyber warfare: an analyst’s perspective</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The Impact of Cyber Conflict on International Interactions</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Impact of Cyber Conflict on International Interactions</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Analogical reasoning and cyber security</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Analogical reasoning and cyber security</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ontological security, cyber technology, and states’ responses</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>On domains: Cyber and the practice of warfare</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>On domains: Cyber and the practice of warfare</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Evaluation of communIT, a large-scale, cyber-physical artifact supporting diverse subgroups building community</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ROBIN: An open-source middleware for plug‘n’produce of Cyber-Physical Systems</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Towards a Chronology of Robotic Art</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Towards a Chronology of Robotic Art</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Attrition rates and maneuver in agent-based simulation models</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Attrition rates and maneuver in agent-based simulation models</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Shelf Life Prediction of Fresh Italian Pork Sausage Modified Atmosphere Packed</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Shelf Life Prediction of Fresh Italian Pork Sausage Modified Atmosphere Packed</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Modeling Information Operations in a Tactical-level Stabilization Environment</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Modeling Information Operations in a Tactical-level Stabilization Environment</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Passwords, pistols, and power plants: An assessment of physical and digital threats targeting Canada’s energy sector</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Passwords, pistols, and power plants: An assessment of physical and digital threats targeting Canada’s energy sector</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Free Access</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Attrition rates and maneuver in agent-based simulation models</t>
+          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Free Access</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+          <t>On domains: Cyber and the practice of warfare</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Framing cyber warfare: an analyst’s perspective</t>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Free Access</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Analogical reasoning and cyber security</t>
+          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Free Access</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Free Access</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
+          <t>The Impact of Cyber Conflict on International Interactions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Evaluation of communIT, a large-scale, cyber-physical artifact supporting diverse subgroups building community</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
+          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On domains: Cyber and the practice of warfare</t>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
+          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Free Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>Ontological security, cyber technology, and states’ responses</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Free Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Impact of Cyber Conflict on International Interactions</t>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evaluation of communIT, a large-scale, cyber-physical artifact supporting diverse subgroups building community</t>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
+          <t>On domains: Cyber and the practice of warfare</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>Ontological security, cyber technology, and states’ responses</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ontological security, cyber technology, and states’ responses</t>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/00207020241234228</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -664,12 +664,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/00223433241233960</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/00223433231218178</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/00207020231178394</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/0959354303013003003</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>Considering the cost of cyber warfare: advancing cyber warfare analytics to better assess tradeoffs in system destruction warfare</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/15485129221114354</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>On domains: Cyber and the practice of warfare</t>
+          <t>ROBIN: An open-source middleware for plug‘n’produce of Cyber-Physical Systems</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/1729881420910316</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ontological security, cyber technology, and states’ responses</t>
+          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/1206331211430016</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/00471178231211500</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.1177/0022002717737138</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,23 +568,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/00207020241234228</t>
+          <t>10.1177/0096340212459039</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -653,18 +653,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.1177/15485129221131226</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -738,18 +738,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/00223433231218178</t>
+          <t>10.1177/1548512917707077</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -829,7 +829,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -908,18 +908,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/0959354303013003003</t>
+          <t>10.1177/1548512915604585</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -993,23 +993,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Considering the cost of cyber warfare: advancing cyber warfare analytics to better assess tradeoffs in system destruction warfare</t>
+          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/15485129221114354</t>
+          <t>10.1177/00207020241234228</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1078,18 +1078,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROBIN: An open-source middleware for plug‘n’produce of Cyber-Physical Systems</t>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/1729881420910316</t>
+          <t>10.1177/0047117820948247</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/1206331211430016</t>
+          <t>10.1177/027836498600500307</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1248,18 +1248,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
+          <t>UNDERSTANDING GRAY ZONE WARFARE FROM MULTIPLE PERSPECTIVES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/00471178231211500</t>
+          <t>10.1177/00438200221141101</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1333,18 +1333,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/0022002717737138</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,95 +466,100 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Estonia 2007</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Bronze Soldier</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Georgia 2008</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russo-Georgian War</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stuxnet</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Olympic Games</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Shamoon</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Saudi Aramco</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ras Gas</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>The Interview</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>DNC</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Guccifer 2.0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Democratic National Committee</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Ukrainian Power Grid</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>BlackEnergy 3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sandowrm</t>
         </is>
@@ -568,18 +573,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/0096340212459039</t>
+          <t>10.1177/1548512915604585</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -642,6 +647,9 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -653,18 +661,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.1177/0022343313518940</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -727,6 +735,9 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,18 +749,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/0096340212459039</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -812,6 +823,9 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -823,23 +837,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+          <t>Ontological security, cyber technology, and states’ responses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/00207020231178394</t>
+          <t>10.1177/13540661221130958</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -897,6 +911,9 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -908,18 +925,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512915604585</t>
+          <t>10.1177/0967010611431079</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -982,6 +999,9 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,18 +1013,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/00207020241234228</t>
+          <t>10.1177/1729881419894808</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1067,6 +1087,9 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1078,23 +1101,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/0047117820948247</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1152,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,18 +1189,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/027836498600500307</t>
+          <t>10.1177/00207020231178394</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1237,6 +1263,9 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1248,23 +1277,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UNDERSTANDING GRAY ZONE WARFARE FROM MULTIPLE PERSPECTIVES</t>
+          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/00438200221141101</t>
+          <t>10.1177/0096340213501344</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1322,6 +1351,9 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1333,18 +1365,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/15485129221131226</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1407,6 +1439,9 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,100 +466,95 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Estonia 2007</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Estonia 2007</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Bronze Soldier</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Bronze Soldier</t>
+          <t>Georgia 2008</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Georgia 2008</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Russo-Georgian War</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Russo-Georgian War</t>
+          <t>Stuxnet</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Stuxnet</t>
+          <t>Olympic Games</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Olympic Games</t>
+          <t>Shamoon</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Shamoon</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>Ras Gas</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Ras Gas</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>The Interview</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>The Interview</t>
+          <t>DNC</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>DNC</t>
+          <t>Guccifer 2.0</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Guccifer 2.0</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Democratic National Committee</t>
+          <t>Ukrainian Power Grid</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Ukrainian Power Grid</t>
+          <t>BlackEnergy 3</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>BlackEnergy 3</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sandowrm</t>
         </is>
@@ -573,18 +568,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Amar S. Basu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/1548512915604585</t>
+          <t>10.1177/2472630317705681</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -647,9 +646,6 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -661,10 +657,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Panel Chair: Dr.Vincent F. Mancuso, Panelists: Dr.James C. Christensen, Dr.Jennifer Cowley, Dr.Victor Finomore, Prof.Cleotide Gonzalez, Dr.Benjamin Knott</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>2014</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/0022343313518940</t>
+          <t>10.1177/1541931214581085</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -735,9 +735,6 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,18 +746,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brandon Valeriano, Ryan C Maness</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/0096340212459039</t>
+          <t>10.1177/0022343313518940</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -823,9 +824,6 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,23 +835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ontological security, cyber technology, and states’ responses</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Towards a Chronology of Robotic Art</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Eduardo Kac</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/13540661221130958</t>
+          <t>10.1177/135485650100700109</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -911,9 +913,6 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,23 +924,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sarah Kreps, Debak Das</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/0967010611431079</t>
+          <t>10.1177/2053168017715930</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -999,9 +1002,6 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,23 +1013,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jonathan Butts, Mason Rice, Sujeet Shenoi</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/1729881419894808</t>
+          <t>10.1177/1548512911449409</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1087,9 +1091,6 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1101,18 +1102,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D.C.H. Yang, S.W. Tzeng</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/027836498600500307</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1175,9 +1180,6 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1189,10 +1191,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1200,7 +1206,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/00207020231178394</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1263,9 +1269,6 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,18 +1280,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Enzo D’Armenio</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/0096340213501344</t>
+          <t>10.1177/15554120241263630</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1351,9 +1358,6 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,18 +1369,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1439,9 +1447,6 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -568,22 +568,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amar S. Basu</t>
+          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/2472630317705681</t>
+          <t>10.1177/00223433241233960</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -657,27 +657,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panel Chair: Dr.Vincent F. Mancuso, Panelists: Dr.James C. Christensen, Dr.Jennifer Cowley, Dr.Victor Finomore, Prof.Cleotide Gonzalez, Dr.Benjamin Knott</t>
+          <t>Sarah Kreps, Debak Das</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/1541931214581085</t>
+          <t>10.1177/2053168017715930</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -746,22 +746,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brandon Valeriano, Ryan C Maness</t>
+          <t>Adam Segal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/0022343313518940</t>
+          <t>10.1177/0096340213501344</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -924,27 +924,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+          <t>Framing cyber warfare: an analyst’s perspective</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sarah Kreps, Debak Das</t>
+          <t>Anthony Ween, Peter Dortmans, Nitin Thakur, Cayt Rowe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/2053168017715930</t>
+          <t>10.1177/1548512917725620</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jonathan Butts, Mason Rice, Sujeet Shenoi</t>
+          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/1548512911449409</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1102,27 +1102,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D.C.H. Yang, S.W. Tzeng</t>
+          <t>Harry Oppenheimer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/027836498600500307</t>
+          <t>10.1177/00223433231217687</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>Modeling Information Operations in a Tactical-level Stabilization Environment</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+          <t>Helen Gaffney, Alasdair Vincent</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.3233/JIFS-235809</t>
+          <t>10.1177/1548512910388199</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1280,22 +1280,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enzo D’Armenio</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/15554120241263630</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>William Akoto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.1177/07388942211051264</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,95 +466,100 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Estonia 2007</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Bronze Soldier</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Georgia 2008</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russo-Georgian War</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stuxnet</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Olympic Games</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Shamoon</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Saudi Aramco</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ras Gas</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>The Interview</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>DNC</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Guccifer 2.0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Democratic National Committee</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Ukrainian Power Grid</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>BlackEnergy 3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sandowrm</t>
         </is>
@@ -568,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
+          <t>Qiuguo Zhu, Yichao Mao, Rong Xiong, Jun Wu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.5772/62204</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -646,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,27 +665,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sarah Kreps, Debak Das</t>
+          <t>Monica Therese Whitty</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/2053168017715930</t>
+          <t>10.1177/0959354303013003003</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -735,6 +743,9 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,22 +757,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adam Segal</t>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/0096340213501344</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -824,6 +835,9 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Towards a Chronology of Robotic Art</t>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eduardo Kac</t>
+          <t>Patrick Perron</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/135485650100700109</t>
+          <t>10.1177/00207020231178394</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -913,6 +927,9 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,12 +941,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Framing cyber warfare: an analyst’s perspective</t>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anthony Ween, Peter Dortmans, Nitin Thakur, Cayt Rowe</t>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -939,7 +956,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512917725620</t>
+          <t>10.1177/1548512917707077</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1002,6 +1019,9 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,22 +1033,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
+          <t>Nadiya Kostyuk, Erik Gartzke</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/00220027231160993</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1091,6 +1111,9 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,22 +1125,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Harry Oppenheimer</t>
+          <t>Madeline Carr, Feja Lesniewska</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/00223433231217687</t>
+          <t>10.1177/0047117820948247</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1180,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,22 +1217,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modeling Information Operations in a Tactical-level Stabilization Environment</t>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Helen Gaffney, Alasdair Vincent</t>
+          <t>Amar S. Basu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/1548512910388199</t>
+          <t>10.1177/2472630317705681</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1269,6 +1295,9 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1280,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.1177/00223433241233960</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1358,6 +1387,9 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,22 +1401,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+          <t>Towards a Chronology of Robotic Art</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>William Akoto</t>
+          <t>Eduardo Kac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/07388942211051264</t>
+          <t>10.1177/135485650100700109</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1447,6 +1479,9 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Qiuguo Zhu, Yichao Mao, Rong Xiong, Jun Wu</t>
+          <t>William Akoto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.5772/62204</t>
+          <t>10.1177/07388942211051264</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -665,22 +665,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Monica Therese Whitty</t>
+          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/0959354303013003003</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+          <t>Thomas Zeitzoff, Grace Gold</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.3233/JIFS-235809</t>
+          <t>10.1177/00223433231221426</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Patrick Perron</t>
+          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/00207020231178394</t>
+          <t>10.1177/00223433231218178</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+          <t>Herbert Lin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/0096340212459039</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nadiya Kostyuk, Erik Gartzke</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/00220027231160993</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1125,27 +1125,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Madeline Carr, Feja Lesniewska</t>
+          <t>Enzo D’Armenio</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/0047117820948247</t>
+          <t>10.1177/15554120241263630</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1217,27 +1217,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Amar S. Basu</t>
+          <t>Eviatar Matania, Udi Sommer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/2472630317705681</t>
+          <t>10.1177/00471178231211500</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1309,27 +1309,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
+          <t>Sarah Kreps, Debak Das</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.1177/2053168017715930</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Towards a Chronology of Robotic Art</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eduardo Kac</t>
+          <t>Monica Therese Whitty</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/135485650100700109</t>
+          <t>10.1177/0959354303013003003</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,100 +466,95 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Estonia 2007</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Estonia 2007</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Bronze Soldier</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Bronze Soldier</t>
+          <t>Georgia 2008</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Georgia 2008</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Russo-Georgian War</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Russo-Georgian War</t>
+          <t>Stuxnet</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Stuxnet</t>
+          <t>Olympic Games</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Olympic Games</t>
+          <t>Shamoon</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Shamoon</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>Ras Gas</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Ras Gas</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>The Interview</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>The Interview</t>
+          <t>DNC</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>DNC</t>
+          <t>Guccifer 2.0</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Guccifer 2.0</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Democratic National Committee</t>
+          <t>Ukrainian Power Grid</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Ukrainian Power Grid</t>
+          <t>BlackEnergy 3</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>BlackEnergy 3</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sandowrm</t>
         </is>
@@ -573,22 +568,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>William Akoto</t>
+          <t>Monica Therese Whitty</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/07388942211051264</t>
+          <t>10.1177/0959354303013003003</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -651,9 +646,6 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,22 +657,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
+          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/00223433241233960</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -743,9 +735,6 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,22 +746,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thomas Zeitzoff, Grace Gold</t>
+          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/00223433231221426</t>
+          <t>10.1177/23477970241298764</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -835,9 +824,6 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -849,22 +835,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
+          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/00223433231218178</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -927,9 +913,6 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -941,27 +924,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Herbert Lin</t>
+          <t>Eviatar Matania, Udi Sommer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/0096340212459039</t>
+          <t>10.1177/00471178231211500</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1019,9 +1002,6 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,27 +1013,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>Harry Oppenheimer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.1177/00223433231217687</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1111,9 +1091,6 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1125,22 +1102,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>From the Ontology of Video Games to the Epistemology of Digital Movements. Towards a Semiotics of Virtual Practices</t>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enzo D’Armenio</t>
+          <t>Ronald J. Deibert, Rafal Rohozinski, Masashi Crete-Nishihata</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/15554120241263630</t>
+          <t>10.1177/0967010611431079</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1203,9 +1180,6 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,27 +1191,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eviatar Matania, Udi Sommer</t>
+          <t>Kyle D Christensen, Peter Dobias</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/00471178231211500</t>
+          <t>10.1177/15485129211010227</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1295,9 +1269,6 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,27 +1280,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Warring from the virtual to the real: Assessing the public’s threshold for war over cyber security</t>
+          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sarah Kreps, Debak Das</t>
+          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/2053168017715930</t>
+          <t>10.1177/00223433231218178</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1387,9 +1358,6 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1401,22 +1369,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Monica Therese Whitty</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/0959354303013003003</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1479,9 +1447,6 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,95 +466,100 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Estonia 2007</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Bronze Soldier</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Georgia 2008</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russo-Georgian War</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stuxnet</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Olympic Games</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Shamoon</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Saudi Aramco</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ras Gas</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>The Interview</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>DNC</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Guccifer 2.0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Democratic National Committee</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Ukrainian Power Grid</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>BlackEnergy 3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Sandowrm</t>
         </is>
@@ -568,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Monica Therese Whitty</t>
+          <t>Madeline Carr, Feja Lesniewska</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/0959354303013003003</t>
+          <t>10.1177/0047117820948247</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -646,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,22 +665,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -735,6 +743,9 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,22 +757,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
+          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
+          <t>Thomas Zeitzoff, Grace Gold</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/23477970241298764</t>
+          <t>10.1177/00223433231221426</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -824,6 +835,9 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
+          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/00223433231218178</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -913,6 +927,9 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,27 +941,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eviatar Matania, Udi Sommer</t>
+          <t>Herbert Lin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/00471178231211500</t>
+          <t>10.1177/0096340212459039</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1002,6 +1019,9 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,22 +1033,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Harry Oppenheimer</t>
+          <t>Zhaohui Liu, Yuezu Lv, Jialing Zhou, Liang Hu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/00223433231217687</t>
+          <t>10.1177/1729881419894808</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1091,6 +1111,9 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,22 +1125,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ronald J. Deibert, Rafal Rohozinski, Masashi Crete-Nishihata</t>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/0967010611431079</t>
+          <t>10.1177/1548512917707077</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1180,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,22 +1217,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kyle D Christensen, Peter Dobias</t>
+          <t>Nadiya Kostyuk, Yuri M. Zhukov</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/15485129211010227</t>
+          <t>10.1177/0022002717737138</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1269,6 +1295,9 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1280,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
+          <t>Towards a Chronology of Robotic Art</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
+          <t>Eduardo Kac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/00223433231218178</t>
+          <t>10.1177/135485650100700109</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1358,6 +1387,9 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,22 +1401,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1447,6 +1479,9 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Madeline Carr, Feja Lesniewska</t>
+          <t>Nadiya Kostyuk, Yuri M. Zhukov</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/0047117820948247</t>
+          <t>10.1177/0022002717737138</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -665,22 +665,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.1177/00223433241233960</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -757,12 +757,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thomas Zeitzoff, Grace Gold</t>
+          <t>Harry Oppenheimer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -772,16 +772,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/00223433231221426</t>
+          <t>10.1177/00223433231217687</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -849,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyberattacks and public opinion – The effect of uncertainty in guiding preferences</t>
+          <t>On domains: Cyber and the practice of warfare</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Jardine, Nathaniel Porter, Ryan Shandler</t>
+          <t>Chris McGuffin, Paul Mitchell</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/00223433231218178</t>
+          <t>10.1177/0020702014540618</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Herbert Lin</t>
+          <t>Rajive Bagrodia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/0096340212459039</t>
+          <t>10.1177/15485129221131226</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>Towards a Chronology of Robotic Art</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Zhaohui Liu, Yuezu Lv, Jialing Zhou, Liang Hu</t>
+          <t>Eduardo Kac</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/1729881419894808</t>
+          <t>10.1177/135485650100700109</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+          <t>Amar S. Basu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/2472630317705681</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nadiya Kostyuk, Yuri M. Zhukov</t>
+          <t>D.C.H. Yang, S.W. Tzeng</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/0022002717737138</t>
+          <t>10.1177/027836498600500307</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Towards a Chronology of Robotic Art</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eduardo Kac</t>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/135485650100700109</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+          <t>Kathryn Hedgecock, Lauren Sukin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1416,16 +1416,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.3233/JIFS-235809</t>
+          <t>10.1177/00220027231153580</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Invisible Digital Front: Can Cyber Attacks Shape Battlefield Events?</t>
+          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nadiya Kostyuk, Yuri M. Zhukov</t>
+          <t>Zhaohui Liu, Yuezu Lv, Jialing Zhou, Liang Hu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/0022002717737138</t>
+          <t>10.1177/1729881419894808</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -665,31 +665,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Ontological security, cyber technology, and states’ responses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
+          <t>Amir Lupovici</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.1177/13540661221130958</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -757,31 +757,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Harry Oppenheimer</t>
+          <t>Herbert Lin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/00223433231217687</t>
+          <t>10.1177/0096340212459039</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -849,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On domains: Cyber and the practice of warfare</t>
+          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chris McGuffin, Paul Mitchell</t>
+          <t>Robert F. Erbacher, Deborah A. Frincke, Pak Chung Wong, Sarah Moody, Glenn Fink</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/0020702014540618</t>
+          <t>10.1057/ivs.2010.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
+          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rajive Bagrodia</t>
+          <t>Jonathan Butts, Mason Rice, Sujeet Shenoi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.1177/1548512911449409</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Towards a Chronology of Robotic Art</t>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eduardo Kac</t>
+          <t>Brandon Valeriano, Ryan C Maness</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/135485650100700109</t>
+          <t>10.1177/0022343313518940</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>On domains: Cyber and the practice of warfare</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Amar S. Basu</t>
+          <t>Chris McGuffin, Paul Mitchell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/2472630317705681</t>
+          <t>10.1177/0020702014540618</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+          <t>Attrition rates and maneuver in agent-based simulation models</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D.C.H. Yang, S.W. Tzeng</t>
+          <t>David Ormrod, Benjamin Turnbull</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/027836498600500307</t>
+          <t>10.1177/1548512917692693</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+          <t>Kyle D Christensen, Peter Dobias</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.3233/JIFS-235809</t>
+          <t>10.1177/15485129211010227</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1401,31 +1401,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kathryn Hedgecock, Lauren Sukin</t>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/00220027231153580</t>
+          <t>10.1177/1548512917707077</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,27 +573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zhaohui Liu, Yuezu Lv, Jialing Zhou, Liang Hu</t>
+          <t>Panel Chair: Dr.Vincent F. Mancuso, Panelists: Dr.James C. Christensen, Dr.Jennifer Cowley, Dr.Victor Finomore, Prof.Cleotide Gonzalez, Dr.Benjamin Knott</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/1729881419894808</t>
+          <t>10.1177/1541931214581085</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -665,27 +665,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ontological security, cyber technology, and states’ responses</t>
+          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amir Lupovici</t>
+          <t>Ke Zhang, Yongqi Bi, Ruiyu Zhang</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/13540661221130958</t>
+          <t>10.1177/09544062251317813</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -757,22 +757,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Herbert Lin</t>
+          <t>Yilmaz Cankaya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/0096340212459039</t>
+          <t>10.1177/1548512915604585</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A Multi-Phase Network Situational Awareness Cognitive Task Analysis</t>
+          <t>Cyber-Flirting: Playing at Love on the Internet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Robert F. Erbacher, Deborah A. Frincke, Pak Chung Wong, Sarah Moody, Glenn Fink</t>
+          <t>Monica Therese Whitty</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1057/ivs.2010.5</t>
+          <t>10.1177/0959354303013003003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jonathan Butts, Mason Rice, Sujeet Shenoi</t>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512911449409</t>
+          <t>10.1177/1548512917707077</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brandon Valeriano, Ryan C Maness</t>
+          <t>Harry Oppenheimer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/0022343313518940</t>
+          <t>10.1177/00223433231217687</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1125,31 +1125,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>On domains: Cyber and the practice of warfare</t>
+          <t>Ontological security, cyber technology, and states’ responses</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chris McGuffin, Paul Mitchell</t>
+          <t>Amir Lupovici</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/0020702014540618</t>
+          <t>10.1177/13540661221130958</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attrition rates and maneuver in agent-based simulation models</t>
+          <t>Evaluation of communIT, a large-scale, cyber-physical artifact supporting diverse subgroups building community</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>David Ormrod, Benjamin Turnbull</t>
+          <t>Carlos de Aguiar, Gilly Leshed, Trevor Pinch, Keith Green</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/1548512917692693</t>
+          <t>10.3233/SCS-220007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kyle D Christensen, Peter Dobias</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/15485129211010227</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+          <t>Brandon Valeriano, Ryan C Maness</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/0022343313518940</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,22 +573,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Human Factors in Cyber Warfare II: Emerging Perspectives</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Panel Chair: Dr.Vincent F. Mancuso, Panelists: Dr.James C. Christensen, Dr.Jennifer Cowley, Dr.Victor Finomore, Prof.Cleotide Gonzalez, Dr.Benjamin Knott</t>
+          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/1541931214581085</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -665,31 +665,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modeling and application for pneumatic soft actuators based on a novel deep neural network</t>
+          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ke Zhang, Yongqi Bi, Ruiyu Zhang</t>
+          <t>Kathryn Hedgecock, Lauren Sukin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/09544062251317813</t>
+          <t>10.1177/00220027231153580</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yilmaz Cankaya</t>
+          <t>Nadiya Kostyuk, Erik Gartzke</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/1548512915604585</t>
+          <t>10.1177/00220027231160993</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -849,22 +849,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyber-Flirting: Playing at Love on the Internet</t>
+          <t>Attrition rates and maneuver in agent-based simulation models</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Monica Therese Whitty</t>
+          <t>David Ormrod, Benjamin Turnbull</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/0959354303013003003</t>
+          <t>10.1177/1548512917692693</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/23477970241298764</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Harry Oppenheimer</t>
+          <t>Kyle D Christensen, Peter Dobias</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1048,16 +1048,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/00223433231217687</t>
+          <t>10.1177/15485129211010227</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1125,31 +1125,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ontological security, cyber technology, and states’ responses</t>
+          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Amir Lupovici</t>
+          <t>Yushi Yang, Meng Li, Yong Chen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/13540661221130958</t>
+          <t>10.1177/01423312231196642</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,31 +1217,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Evaluation of communIT, a large-scale, cyber-physical artifact supporting diverse subgroups building community</t>
+          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carlos de Aguiar, Gilly Leshed, Trevor Pinch, Keith Green</t>
+          <t>Eviatar Matania, Udi Sommer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.3233/SCS-220007</t>
+          <t>10.1177/00471178231211500</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kazem Kazerounian, Zhaoyu Wang</t>
+          <t>Rajive Bagrodia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/027836498800700501</t>
+          <t>10.1177/15485129221131226</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brandon Valeriano, Ryan C Maness</t>
+          <t>D.C.H. Yang, S.W. Tzeng</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/0022343313518940</t>
+          <t>10.1177/027836498600500307</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -573,22 +573,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
+          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
+          <t>Yilmaz Cankaya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/10439862211001606</t>
+          <t>10.1177/1548512915604585</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -596,8 +596,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>15</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -665,31 +667,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Responding to Uncertainty: The Importance of Covertness in Support for Retaliation to Cyber and Kinetic Attacks</t>
+          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kathryn Hedgecock, Lauren Sukin</t>
+          <t>Patrick Perron</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/00220027231153580</t>
+          <t>10.1177/00207020231178394</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open Access</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>11</v>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>International Journal: Canada’s Journal of Global Policy Analysis</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -757,22 +761,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
+          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nadiya Kostyuk, Erik Gartzke</t>
+          <t>Yushi Yang, Meng Li, Yong Chen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/00220027231160993</t>
+          <t>10.1177/01423312231196642</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -780,8 +784,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>9</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Transactions of the Institute of Measurement and Control</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -849,22 +855,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attrition rates and maneuver in agent-based simulation models</t>
+          <t>Using network digital twins to improve cyber resilience of missions</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>David Ormrod, Benjamin Turnbull</t>
+          <t>Rajive Bagrodia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/1548512917692693</t>
+          <t>10.1177/15485129221131226</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -872,8 +878,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>17</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +949,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
+          <t>Attrition rates and maneuver in agent-based simulation models</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
+          <t>David Ormrod, Benjamin Turnbull</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/23477970241298764</t>
+          <t>10.1177/1548512917692693</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -964,8 +972,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>9</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1033,22 +1043,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kyle D Christensen, Peter Dobias</t>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/15485129211010227</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1056,8 +1066,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>11</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Journal of Intelligent &amp; Fuzzy Systems: Applications in Engineering and Technology</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1125,22 +1137,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
+          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yushi Yang, Meng Li, Yong Chen</t>
+          <t>William Akoto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/01423312231196642</t>
+          <t>10.1177/07388942211051264</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1148,8 +1160,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>19</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Conflict Management and Peace Science</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,31 +1231,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tech titans, cyber commons and the war in Ukraine: An incipient shift in international relations</t>
+          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eviatar Matania, Udi Sommer</t>
+          <t>Kyle D Christensen, Peter Dobias</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/00471178231211500</t>
+          <t>10.1177/15485129211010227</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Open Access</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>22</v>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1309,22 +1325,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
+          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rajive Bagrodia</t>
+          <t>Thomas Zeitzoff, Grace Gold</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.1177/00223433231221426</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1332,8 +1348,10 @@
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1401,31 +1419,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Simplification and Linearization of Manipulator Dynamics by the Design of Inertia Distribution</t>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D.C.H. Yang, S.W. Tzeng</t>
+          <t>Madeline Carr, Feja Lesniewska</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/027836498600500307</t>
+          <t>10.1177/0047117820948247</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Restricted</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>International Relations</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -573,22 +573,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technical note: exploiting problem definition study for cyber security simulations</t>
+          <t>Mapping Global Cyberterror Networks: An Empirical Study of Al-Qaeda and ISIS Cyberterrorism Events</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yilmaz Cankaya</t>
+          <t>Claire Seungeun Lee, Kyung-Shick Choi, Ryan Shandler, Chris Kayser</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/1548512915604585</t>
+          <t>10.1177/10439862211001606</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>Journal of Contemporary Criminal Justice</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -667,22 +667,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moving beyond the sanctuary paradigm: Canada must face up to the reality of a contested and dangerous space environment</t>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Patrick Perron</t>
+          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/00207020231178394</t>
+          <t>10.1177/23477970241298764</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>International Journal: Canada’s Journal of Global Policy Analysis</t>
+          <t>Journal of Asian Security and International Affairs</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -761,22 +761,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robust tracking strategy for nonlinear connected vehicle cyber-physical systems</t>
+          <t>Shelf Life Prediction of Fresh Italian Pork Sausage Modified Atmosphere Packed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yushi Yang, Meng Li, Yong Chen</t>
+          <t>E. Torrieri, F. Russo, R. Di Monaco, S. Cavella, F. Villani, F. Masi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.1177/01423312231196642</t>
+          <t>10.1177/1082013210382328</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Transactions of the Institute of Measurement and Control</t>
+          <t>Food Science and Technology International</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -855,22 +855,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
+          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rajive Bagrodia</t>
+          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.3233/JIFS-235809</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>Journal of Intelligent &amp; Fuzzy Systems: Applications in Engineering and Technology</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -949,22 +949,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attrition rates and maneuver in agent-based simulation models</t>
+          <t>Global versus Local Optimization in Redundancy Resolution of Robotic Manipulators</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>David Ormrod, Benjamin Turnbull</t>
+          <t>Kazem Kazerounian, Zhaoyu Wang</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512917692693</t>
+          <t>10.1177/027836498800700501</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>The International Journal of Robotics Research</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1043,22 +1043,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A novel ensemble learning approach for fault detection of sensor data in cyber-physical system</t>
+          <t>The code not taken: China, the United States, and the future of cyber espionage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Sneka Nandhini, Ramanathan Lakshmanan</t>
+          <t>Adam Segal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.3233/JIFS-235809</t>
+          <t>10.1177/0096340213501344</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Journal of Intelligent &amp; Fuzzy Systems: Applications in Engineering and Technology</t>
+          <t>Bulletin of the Atomic Scientists</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Accountability and cyber conflict: examining institutional constraints on the use of cyber proxies</t>
+          <t>Cyclones in cyberspace: Information shaping and denial in the 2008 Russia–Georgia war</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Akoto</t>
+          <t>Ronald J. Deibert, Rafal Rohozinski, Masashi Crete-Nishihata</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/07388942211051264</t>
+          <t>10.1177/0967010611431079</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Conflict Management and Peace Science</t>
+          <t>Security Dialogue</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1231,32 +1231,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wargaming the use of intermediate force capabilities in the gray zone</t>
+          <t>Offensive Cyber Operations and State Power: Lessons from Russia in Ukraine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kyle D Christensen, Peter Dobias</t>
+          <t>Alex S. Wilner, Gabriel Williams, Mattias Thuns-Rondeau, Nathanaël Beaulieu, Veronique Cossette-Sharkey</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/15485129211010227</t>
+          <t>10.1177/00207020241234228</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>International Journal: Canada’s Journal of Global Policy Analysis</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1325,22 +1325,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cyber and contentious politics: Evidence from the US radical environmental movement</t>
+          <t>Framing cyber warfare: an analyst’s perspective</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thomas Zeitzoff, Grace Gold</t>
+          <t>Anthony Ween, Peter Dortmans, Nitin Thakur, Cayt Rowe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/00223433231221426</t>
+          <t>10.1177/1548512917725620</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Journal of Peace Research</t>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Madeline Carr, Feja Lesniewska</t>
+          <t>Nadiya Kostyuk, Erik Gartzke</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.1177/0047117820948247</t>
+          <t>10.1177/00220027231160993</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>International Relations</t>
+          <t>Journal of Conflict Resolution</t>
         </is>
       </c>
       <c r="H11" t="n">

--- a/sage_scrape_results.xlsx
+++ b/sage_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,17 +573,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyber scares and prophylactic policies: Crossnational evidence on the effect of cyberattacks on public support for surveillance</t>
+          <t>Until consensus: Introducing the International Cyber Expression dataset</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amelia C Arsenault, Sarah E Kreps, Keren LG Snider, Daphna Canetti</t>
+          <t>Justin Key Canfil</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.1177/00223433241233960</t>
+          <t>10.1177/00223433231217656</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -670,27 +670,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Securing Virtual Space: Cyber War, Cyber Terror, and Risk</t>
+          <t>Feature extraction and feature selection for classifying cyber traffic threats</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>David Barnard-Wills, Debi Ashenden</t>
+          <t>Kristy L Moore, Trevor J Bihl, Kenneth W Bauer, Jr, Thomas E Dube</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.1177/1206331211430016</t>
+          <t>10.1177/1548512916664032</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -700,11 +700,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Space and Culture</t>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -767,41 +767,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adaptive Torque and Position Control for a Legged Robot Based on a Series Elastic Actuator</t>
+          <t>Introduction: Cyber-conflict – Moving from speculation to investigation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Qiuguo Zhu, Yichao Mao, Rong Xiong, Jun Wu</t>
+          <t>Ryan Shandler, Daphna Canetti</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.5772/62204</t>
+          <t>10.1177/00223433231219441</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Open Access</t>
+          <t>Restricted</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>International Journal of Advanced Robotic Systems</t>
+          <t>Journal of Peace Research</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,27 +864,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On 3D simultaneous attack against manoeuvring target with communication delays</t>
+          <t>If it bleeps it leads? Media coverage on cyber conflict and misperception</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Zhaohui Liu, Yuezu Lv, Jialing Zhou, Liang Hu</t>
+          <t>Christos Makridis, Lennart Maschmeyer, Max Smeets</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.1177/1729881419894808</t>
+          <t>10.1177/00223433231220264</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -894,11 +894,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>International Journal of Advanced Robotic Systems</t>
+          <t>Journal of Peace Research</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>197</v>
+        <v>513</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,27 +961,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+          <t>Brandon Valeriano, Ryan C Maness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.1177/1548512917707077</t>
+          <t>10.1177/0022343313518940</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -991,11 +991,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>Journal of Peace Research</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1058,27 +1058,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modeling Information Operations in a Tactical-level Stabilization Environment</t>
+          <t>Human Factors in Cyber Warfare: Alternative Perspectives</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Helen Gaffney, Alasdair Vincent</t>
+          <t>Dr.Benjamin A Knott, Dr.Vincent F Mancuso, Dr.Kevin Bennett, Dr.Victor Finomore, Dr.Michael McNeese, Ms.Jennifer A. McKneely, Maj.Maria Beecher</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.1177/1548512910388199</t>
+          <t>10.1177/1541931213571086</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>Proceedings of the Human Factors and Ergonomics Society Annual Meeting</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1155,27 +1155,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Impact of Cyber Conflict on International Interactions</t>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ryan C. Maness, Brandon Valeriano</t>
+          <t>Nadiya Kostyuk, Erik Gartzke</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.1177/0095327X15572997</t>
+          <t>10.1177/00220027231160993</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Armed Forces &amp; Society</t>
+          <t>Journal of Conflict Resolution</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1252,41 +1252,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Digital Assays Part II: Digital Protein and Cell Assays</t>
+          <t>Subversion, cyber operations, and reverse structural power in world politics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Amar S. Basu</t>
+          <t>Lennart Maschmeyer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.1177/2472630317705681</t>
+          <t>10.1177/13540661221117051</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SLAS TECHNOLOGY: Translating Life Sciences Innovation</t>
+          <t>European Journal of International Relations</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1349,41 +1349,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kinetic Cyber</t>
+          <t>Cyber Operations</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Using network digital twins to improve cyber resilience of missions</t>
+          <t>Hack, heist, and havoc: The Lazarus Group’s triple threat to global cybersecurity</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rajive Bagrodia</t>
+          <t>Arif Perdana, Muhamad Erza Aminanto, Bayu Anggorojati</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.1177/15485129221131226</t>
+          <t>10.1177/20438869241303941</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Restricted</t>
+          <t>Open Access</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+          <t>Journal of Information Technology Teaching Cases</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1446,97 +1446,3973 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Cyber Operations</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cyber risk and vulnerability estimation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hasan Cam</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.1177/15485129211070058</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.1177/1548512917707077</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Assessing the Compatibility of Conventional Military Doctrines With the Changing Character of War: A Case of Indo-Pak Rivalry</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Akbar Khan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10.1177/00219096241243056</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Journal of Asian and African Studies</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Introduction: Cyber-conflict – Moving from speculation to investigation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ryan Shandler, Daphna Canetti</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.1177/00223433231219441</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brandon Valeriano, Ryan C Maness</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.1177/0022343313518940</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The Future of Cyber-Resilience in an Age of Global Complexity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lewis Herrington, Richard Aldrich</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.1111/1467-9256.12035</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Human Factors in Cyber Warfare: Alternative Perspectives</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dr.Benjamin A Knott, Dr.Vincent F Mancuso, Dr.Kevin Bennett, Dr.Victor Finomore, Dr.Michael McNeese, Ms.Jennifer A. McKneely, Maj.Maria Beecher</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.1177/1541931213571086</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Proceedings of the Human Factors and Ergonomics Society Annual Meeting</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UNDERSTANDING GRAY ZONE WARFARE FROM MULTIPLE PERSPECTIVES</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tahir Mahmood Azad, Muhammad Waqas Haider, Muhammad Sadiq</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10.1177/00438200221141101</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>World Affairs</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>655</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hack, heist, and havoc: The Lazarus Group’s triple threat to global cybersecurity</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arif Perdana, Muhamad Erza Aminanto, Bayu Anggorojati</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.1177/20438869241303941</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Journal of Information Technology Teaching Cases</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>582</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Can encryption save lives? Secure messaging and its infrastructure as loci of convergence between cyber warfare and conventional warfare: The case of Ukraine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ksenia Ermoshina, Francesca Musiani</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.1177/17506352241297942</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Media, War &amp; Conflict</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cyber Warfare</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Call for Papers – Special Issue/Section of Politics: Networked World? The Politics of Cyberspace and Social Media</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10.1111/j.1467-9256.2012.01427.x</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Book Review: David Betz, Carnage and Connectivity: Landmarks in the Decline of Conventional Military Power</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Quint Hoekstra</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.1177/1478929917712908</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Political Studies Review</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cyberterrorism: Are We Under Siege?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AYN EMBAR-SEDDON</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10.1177/0002764202045006007</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>American Behavioral Scientist</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Book Review: Memetic War: Online Resistance in Ukraine</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Khrystyna Monastyrska</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10.1177/1329878X231203014</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Media International Australia</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lost in cyberspace: Harnessing the Internet, international relations, and global security</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nazli Choucri, Daniel Goldsmith</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10.1177/0096340212438696</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bulletin of the Atomic Scientists</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strengthening the EU's Resilience in the Virtual Domain</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gonçalo Carriço</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10.1007/s12290-017-0465-3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>European View</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cybersecurity, Bureaucratic Vitalism and European Emergency</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Stephanie Simon, Marieke de Goede</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.1177/0263276414560415</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Theory, Culture &amp; Society</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Book Review: Strategy in Asia: The Past, Present and Future of Regional Security</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ian Hall</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10.1177/1478929915609475g</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Political Studies Review</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Book Review: The Crimes of Digital Capitalism: Corporate Crime in an Age of Exploitation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Laura Bedford</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.1177/2631309X251362850</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Journal of White Collar and Corporate Crime</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Book Review: Networks and Netwars: The Future of Terror, Crime, and Militancy</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Patricia Radin</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10.1177/146144480200400211</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>New Media &amp; Society</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cyberwar</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Brandon Valeriano, Ryan C Maness</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10.1177/0022343313518940</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>22</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Digital Foreign Policy: How Digital Tools Can Further Europe's Foreign Policy Goals</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Łukasz Antoni Król</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.1007/s12290-016-0384-8</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>European View</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Book Review: Memetic War: Online Resistance in Ukraine</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Khrystyna Monastyrska</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10.1177/1329878X231203014</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Media International Australia</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Japan and the Revolution in Military Affairs</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tom Le</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10.1177/2347797018783112</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Journal of Asian Security and International Affairs</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>22</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Book Review: The Crimes of Digital Capitalism: Corporate Crime in an Age of Exploitation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Laura Bedford</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10.1177/2631309X251362850</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Journal of White Collar and Corporate Crime</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Did a USB drive disrupt a nuclear program? A Defense in Depth (DiD) teaching case</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pratim M. Datta, Thomas Acton</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10.1177/20438869231200284</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Journal of Information Technology Teaching Cases</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Book review: Yang Guobin, The Power of the Internet in China: Citizen Activism Online. New York: Columbia University Press, 2009. xv + 302 pp., with index, bibliography, notes, tables, figures, and graphs. US$29.50. ISBN 978-0-231-14420-9 (hc)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Lokman Tsui</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10.1177/0920203X100240020507</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>China Information</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Review: Jussi Parikka, Digital Contagions: A Media Archaeology of Computer Viruses</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Roger Whitson</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10.1177/0263276417736593</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Theory, Culture &amp; Society</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A look back at the past 44 years of live virtual and constructive (LVC) simulation and lessons for cyberspace LVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Michael G. Lilienthal</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10.1177/15485129221109574</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>David A. Covington, A Redemptive Theology of Art: Restoring Godly Aesthetics to Doctrine and Culture</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Graham Howes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10.1177/0040571X18817441s</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Theology</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cyberwarfare</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Book review: Sameer Patil, Securing India in the Cyber Era</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Lokendra Sharma</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10.1177/23477970231173549</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Journal of Asian Security and International Affairs</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Kinetic Cyber</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Shelf Life Prediction of Fresh Italian Pork Sausage Modified Atmosphere Packed</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>E. Torrieri, F. Russo, R. Di Monaco, S. Cavella, F. Villani, F. Masi</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.1177/1082013210382328</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Internet of Things, cybersecurity and governing wicked problems: learning from climate change governance</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Madeline Carr, Feja Lesniewska</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10.1177/0047117820948247</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>International Relations</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>700</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Prioritizing investment in military cyber capability using risk analysis</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cayt Rowe, Hossein Seif Zadeh, Ivan L. Garanovich, Li Jiang, Daniel Bilusich, Rick Nunes-Vaz, Anthony Ween</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10.1177/1548512917707077</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Restricted</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Food Science and Technology International</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A virtual necessity: Some modest steps toward greater cybersecurity</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Herbert Lin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10.1177/0096340212459039</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bulletin of the Atomic Scientists</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>11</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ontological security, cyber technology, and states’ responses</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Amir Lupovici</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10.1177/13540661221130958</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>European Journal of International Relations</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>690</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Indonesia’s Handling of Terrorists’ Cyber Activities: How Repressive Measures Still Fall Short</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ali Abdullah Wibisono, Rachel Kumendong, Iwa Maulana</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10.1177/23477970241298764</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Journal of Asian Security and International Affairs</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The dynamics of cyber conflict between rival antagonists, 2001–11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brandon Valeriano, Ryan C Maness</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10.1177/0022343313518940</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>22</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>How the process of discovering cyberattacks biases our understanding of cybersecurity</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Harry Oppenheimer</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10.1177/00223433231217687</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Journal of Peace Research</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>624</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fighting in Cyberspace: Internet Access and the Substitutability of Cyber and Military Operations</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nadiya Kostyuk, Erik Gartzke</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10.1177/00220027231160993</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Journal of Conflict Resolution</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UNDERSTANDING GRAY ZONE WARFARE FROM MULTIPLE PERSPECTIVES</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tahir Mahmood Azad, Muhammad Waqas Haider, Muhammad Sadiq</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10.1177/00438200221141101</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Open Access</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>World Affairs</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>655</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kinetic Cyber</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>An Adversarial Model for Expressing Attacks on Control Protocols</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Jonathan Butts, Mason Rice, Sujeet Shenoi</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10.1177/1548512911449409</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>The Journal of Defense Modeling and Simulation: Applications, Methodology, Technology</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
         <v>0</v>
       </c>
     </row>
